--- a/biology/Médecine/Jean_Taxil/Jean_Taxil.xlsx
+++ b/biology/Médecine/Jean_Taxil/Jean_Taxil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Taxil, né aux Saintes-Maries-de-la-Mer vers 1570 et mort à une date inconnue à Arles, est un médecin et astrologue du XVIIe siècle, ayant été actif de 1602 à 1618. Il est auteur d'ouvrages sur l'épilepsie, l'astronomie, l'astrologie et la physiognomonie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de la Camargue, Jean Taxil termine ses études classiques au collège de Tournon et étudie la médecine à l'université de Montpellier, où il est reçu docteur en 1594[1]. Il s'installe vers cette époque à Arles où il traite une femme atteinte de l'épilepsie.
-En 1602 ou 1603, il fait sonTraité de l'Epilepsie (Livre I, Chapitre 15), il rapporte la première description historique d'un probable cas d'hyperlexie[réf. souhaitée]. Le traité semble avoir été bien reçu de ses concitoyens qui remboursent une partie des frais d'impression[2].
-À l'instar de Michel de Nostredame, qu'il cite, Jean Taxil pratique aussi l'astrologie. En septembre 1607, il observe la comète de Halley à Arles, et à cette occasion commence une longue polémique sur les prédictions astrologiques qu'on peut tirer de telles observations[3].  
-En 1614, Taxil est chargé de s'occuper du corps de François-Alexandre de Lorraine (1589-1614), fils d'Henri Ier de Guise[4], tué accidentellement aux Baux-de-Provence. En 1616, il figure parmi les personnes qui offrent un retable à l'église du collège d'Arles[5].    
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de la Camargue, Jean Taxil termine ses études classiques au collège de Tournon et étudie la médecine à l'université de Montpellier, où il est reçu docteur en 1594. Il s'installe vers cette époque à Arles où il traite une femme atteinte de l'épilepsie.
+En 1602 ou 1603, il fait sonTraité de l'Epilepsie (Livre I, Chapitre 15), il rapporte la première description historique d'un probable cas d'hyperlexie[réf. souhaitée]. Le traité semble avoir été bien reçu de ses concitoyens qui remboursent une partie des frais d'impression.
+À l'instar de Michel de Nostredame, qu'il cite, Jean Taxil pratique aussi l'astrologie. En septembre 1607, il observe la comète de Halley à Arles, et à cette occasion commence une longue polémique sur les prédictions astrologiques qu'on peut tirer de telles observations.  
+En 1614, Taxil est chargé de s'occuper du corps de François-Alexandre de Lorraine (1589-1614), fils d'Henri Ier de Guise, tué accidentellement aux Baux-de-Provence. En 1616, il figure parmi les personnes qui offrent un retable à l'église du collège d'Arles.    
 Il s'était marié avec Claire Taulemesse, une femme d'une famille de notables arlésiens.
 </t>
         </is>
